--- a/Data/polisy/Data.xlsx
+++ b/Data/polisy/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="95">
   <si>
     <t xml:space="preserve">Job Name</t>
   </si>
@@ -85,30 +85,15 @@
     <t xml:space="preserve">No Work details</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ST 00001 J=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">BKD360F(L) S=STEP_Info_NA R=12 T=MR C=BNK I=3821774</t>
-    </r>
+    <t xml:space="preserve">ST 00001 J=BKD360F(L) S=STEP_Info_NA R=12 T=MR C=BNK I=3821774</t>
   </si>
   <si>
     <t xml:space="preserve">12.06.2023 8:15</t>
   </si>
   <si>
+    <t xml:space="preserve">The software cannot be installed due to insufficient disk space on the system's hard drive.</t>
+  </si>
+  <si>
     <t xml:space="preserve">App Admin</t>
   </si>
   <si>
@@ -142,6 +127,9 @@
     <t xml:space="preserve">23.07.2023 14:45</t>
   </si>
   <si>
+    <t xml:space="preserve">The installation is blocked because the software is incompatible with the current operating system version.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jock Loh</t>
   </si>
   <si>
@@ -163,6 +151,9 @@
     <t xml:space="preserve">05.08.2023 9:30</t>
   </si>
   <si>
+    <t xml:space="preserve">The software installation fails because the downloaded installation file is corrupted or incomplete.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nick Boh</t>
   </si>
   <si>
@@ -181,6 +172,9 @@
     <t xml:space="preserve">19.09.2023 16:10</t>
   </si>
   <si>
+    <t xml:space="preserve">The user lacks the necessary administrator privileges required to install the software on this machine.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lock Moh</t>
   </si>
   <si>
@@ -199,6 +193,9 @@
     <t xml:space="preserve">01.10.2023 11:20</t>
   </si>
   <si>
+    <t xml:space="preserve">The antivirus software on the system is detecting the installer as a threat and blocking the installation process.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mock Soh</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
     <t xml:space="preserve">15.11.2023 18:50</t>
   </si>
   <si>
+    <t xml:space="preserve">The installation cannot proceed because some required software dependencies are missing from the system.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rock Doh</t>
   </si>
   <si>
@@ -235,6 +235,9 @@
     <t xml:space="preserve">28.12.2023 7:05</t>
   </si>
   <si>
+    <t xml:space="preserve">The installation fails due to a network connection issue preventing access to necessary online resources.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sock Goh</t>
   </si>
   <si>
@@ -253,6 +256,9 @@
     <t xml:space="preserve">04.01.2024 12:40</t>
   </si>
   <si>
+    <t xml:space="preserve">The installation path chosen is either invalid or inaccessible due to permission or security restrictions.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dock Roh</t>
   </si>
   <si>
@@ -271,6 +277,9 @@
     <t xml:space="preserve">17.02.2024 10:15</t>
   </si>
   <si>
+    <t xml:space="preserve">The software cannot be installed because a conflicting application or an older version is already present on the system.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pock Poh</t>
   </si>
   <si>
@@ -287,6 +296,9 @@
   </si>
   <si>
     <t xml:space="preserve">29.03.2024 15:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system drivers are outdated, which causes the installation to fail as it cannot proceed with current hardware support.</t>
   </si>
   <si>
     <t xml:space="preserve">Tock Voh</t>
@@ -302,7 +314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -331,12 +343,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -381,16 +387,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,543 +599,573 @@
   </sheetPr>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3:Q11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="64.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="63.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="63.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>28</v>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="0" t="s">
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>36</v>
+      <c r="O3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="0" t="s">
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="0" t="s">
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>36</v>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="0" t="s">
+      <c r="D6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="0" t="s">
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>36</v>
+      <c r="O6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="0" t="s">
+      <c r="D7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="K7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="0" t="s">
+      <c r="L7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>28</v>
+      <c r="O7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="0" t="s">
+      <c r="D8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="K8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" s="0" t="s">
+      <c r="L8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="0" t="s">
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R9" s="0" t="s">
+      <c r="L9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="A10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="0" t="s">
+      <c r="D10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" s="0" t="s">
+      <c r="L10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="A11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="0" t="s">
+      <c r="D11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="K11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="0" t="s">
+      <c r="L11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>28</v>
+      <c r="O11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
